--- a/pred_ohlcv/54_21/2020-01-24 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>352.87502206</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>353.67652206</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>353.36632206</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>353.36632206</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>353.8720220599999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>394.36602206</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>442.57532206</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>442.6012120199999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>442.6012120199999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>434.4714120199999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>432.55241202</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>431.9515120199999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>429.55991202</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>429.58700958</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>428.46700958</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>428.11490958</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>415.86870958</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>421.86870958</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>377.25870958</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>398.61680958</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>390.62680958</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>393.83660958</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>289.14760958</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>291.51760958</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>291.60000958</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>291.60000958</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>687.45340958</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>462.0434262600002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>476.1392262600002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>466.1392262600002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>450.9392262600002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>453.5838262600002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>444.2293262600002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>444.1055262600002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>444.1055262600002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>438.8695262600002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>402.5323262600002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>454.9438262600002</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>444.9608262600001</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>445.0159262600001</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>444.9776262600001</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>435.4336262600002</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>422.6646262600001</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>432.6646262600001</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>434.1199262600002</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>430.1199262600002</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>430.4579262600002</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>426.4579262600002</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>426.4579262600002</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>426.4579262600002</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>441.9379262600002</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>440.7049262600002</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>352.87502206</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>353.8720220599999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>364.42112206</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>394.36602206</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>442.57532206</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>442.6012120199999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>442.6012120199999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>434.4714120199999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>432.55241202</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>431.9515120199999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>429.55991202</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>429.58700958</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>428.46700958</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>428.11490958</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>415.86870958</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>421.86870958</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>398.61680958</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>390.62680958</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>393.83660958</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>289.14760958</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>291.51760958</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>291.60000958</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>291.60000958</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>687.45340958</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>462.0434262600002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>476.1392262600002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>466.1392262600002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>450.9392262600002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>453.5838262600002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>444.2293262600002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>444.1055262600002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>444.1055262600002</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>438.8695262600002</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>402.5323262600002</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>441.9947262600002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>446.0464262600002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>445.0159262600001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>444.9776262600001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>435.4336262600002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>422.6646262600001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>432.6646262600001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>434.1199262600002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>430.1199262600002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>430.4579262600002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>426.4579262600002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>426.4579262600002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>426.4579262600002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>441.9379262600002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>440.7049262600002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
